--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/115.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/115.xlsx
@@ -479,13 +479,13 @@
         <v>-0.03666836495858423</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.316874819130086</v>
+        <v>-1.279611471753914</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1342684384721606</v>
+        <v>0.1260688083936174</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09684594585407977</v>
+        <v>0.08608247132790084</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.03823908455988154</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.291566345522275</v>
+        <v>-1.262655933274192</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04068811613345849</v>
+        <v>0.03332655365909683</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1276602608127079</v>
+        <v>0.1169741688353471</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.05125590919422188</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.300460958492091</v>
+        <v>-1.271113991864826</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03353488861597612</v>
+        <v>-0.02838237890315933</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1053872271858957</v>
+        <v>0.08895000577844553</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.07825053158586927</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.342650508126988</v>
+        <v>-1.330818278398264</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.04026425026697432</v>
+        <v>-0.03487667281152122</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1155579221871657</v>
+        <v>0.1059843868550773</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1154645316000745</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.378123836543706</v>
+        <v>-1.377095962687706</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02280353514779719</v>
+        <v>-0.0124663946641636</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1156747260344384</v>
+        <v>0.107492616532986</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.156316133644647</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.235534079937471</v>
+        <v>-1.209891255316842</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09197522542280835</v>
+        <v>0.1341019929897971</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05529881737918184</v>
+        <v>0.04205326109845813</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1924723222122779</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9294787991211901</v>
+        <v>-0.9010545828873795</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2022920790275969</v>
+        <v>0.2333867232196795</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01238508389119336</v>
+        <v>0.004674569923104522</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2094491364677927</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5311002973724789</v>
+        <v>-0.5157186907347557</v>
       </c>
       <c r="F9" t="n">
-        <v>0.27538792665085</v>
+        <v>0.3140018185111124</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0527155403862437</v>
+        <v>-0.07068581228914797</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1870529577296816</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.07821966043823686</v>
+        <v>-0.09160684138377871</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2701711748220332</v>
+        <v>0.3219138191157466</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04086725012851961</v>
+        <v>-0.05652334580733359</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1014853451725961</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6122341616563051</v>
+        <v>0.5930403694532193</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09823153149235213</v>
+        <v>0.1655120075695159</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09158932080668782</v>
+        <v>-0.1130432674545002</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.06058766780039029</v>
       </c>
       <c r="E12" t="n">
-        <v>1.403177253655729</v>
+        <v>1.379263125974735</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2416413832055566</v>
+        <v>-0.1710889393566665</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009866500934375856</v>
+        <v>-0.009857288725709757</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2971222512233313</v>
       </c>
       <c r="E13" t="n">
-        <v>2.100229033073087</v>
+        <v>2.045729817983738</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7020295874232512</v>
+        <v>-0.6288972385977254</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1373286992707053</v>
+        <v>0.1223500659060729</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.585638498579216</v>
       </c>
       <c r="E14" t="n">
-        <v>2.827651272829438</v>
+        <v>2.754369999098639</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.278525195974278</v>
+        <v>-1.231793436728563</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2397788137616778</v>
+        <v>0.2042485434694146</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8970736965354194</v>
       </c>
       <c r="E15" t="n">
-        <v>3.526320785531523</v>
+        <v>3.439047870945546</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.862131238728031</v>
+        <v>-1.808857003986954</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4071777075286328</v>
+        <v>0.3741981412511871</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.213257826399522</v>
       </c>
       <c r="E16" t="n">
-        <v>4.126932008400089</v>
+        <v>4.041044679452384</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.530382109504124</v>
+        <v>-2.475985097781138</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6129028636819412</v>
+        <v>0.5891756221565839</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.519911572303588</v>
       </c>
       <c r="E17" t="n">
-        <v>4.714829132493022</v>
+        <v>4.6239177780645</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.169336385312089</v>
+        <v>-3.096287259227745</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8234315780543392</v>
+        <v>0.7890153244554393</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.809111535148152</v>
       </c>
       <c r="E18" t="n">
-        <v>5.282652055384051</v>
+        <v>5.185447893683714</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.861050228909085</v>
+        <v>-3.777317200919516</v>
       </c>
       <c r="G18" t="n">
-        <v>1.075259212726181</v>
+        <v>1.049633908682642</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.06910630625914</v>
       </c>
       <c r="E19" t="n">
-        <v>5.803270163447911</v>
+        <v>5.698483972011485</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.474041929564511</v>
+        <v>-4.388791181584443</v>
       </c>
       <c r="G19" t="n">
-        <v>1.306647634173391</v>
+        <v>1.281625329991398</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.289628368056417</v>
       </c>
       <c r="E20" t="n">
-        <v>6.174919564796356</v>
+        <v>6.050019750859573</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.013137676242867</v>
+        <v>-4.902697448574396</v>
       </c>
       <c r="G20" t="n">
-        <v>1.514199310488426</v>
+        <v>1.492073741718796</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.4636608195211</v>
       </c>
       <c r="E21" t="n">
-        <v>6.52259351644399</v>
+        <v>6.42414685381829</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.420580156539939</v>
+        <v>-5.290890654840928</v>
       </c>
       <c r="G21" t="n">
-        <v>1.736282845452276</v>
+        <v>1.704307792261375</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.584910258123721</v>
       </c>
       <c r="E22" t="n">
-        <v>6.842617077345996</v>
+        <v>6.756998397247019</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.619261310678658</v>
+        <v>-5.483082625239604</v>
       </c>
       <c r="G22" t="n">
-        <v>1.811267995305165</v>
+        <v>1.778554157780265</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.657409794626572</v>
       </c>
       <c r="E23" t="n">
-        <v>6.999744532793408</v>
+        <v>6.894225397215346</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.827525490462056</v>
+        <v>-5.713070860567633</v>
       </c>
       <c r="G23" t="n">
-        <v>1.946015833615129</v>
+        <v>1.919843011537499</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.686906624523493</v>
       </c>
       <c r="E24" t="n">
-        <v>7.18286814449945</v>
+        <v>7.082289811661022</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.782314371303023</v>
+        <v>-5.661735569691283</v>
       </c>
       <c r="G24" t="n">
-        <v>2.016140483373383</v>
+        <v>1.983492348012573</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.682154238119271</v>
       </c>
       <c r="E25" t="n">
-        <v>7.214828597209441</v>
+        <v>7.108646599798106</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.727379331858538</v>
+        <v>-5.613868623054887</v>
       </c>
       <c r="G25" t="n">
-        <v>1.995580086157206</v>
+        <v>1.968564816331123</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.652637937067598</v>
       </c>
       <c r="E26" t="n">
-        <v>7.192884074403083</v>
+        <v>7.091726102472565</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.592613972971483</v>
+        <v>-5.490302563049148</v>
       </c>
       <c r="G26" t="n">
-        <v>1.929412166725315</v>
+        <v>1.897825486326596</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.604722270044174</v>
       </c>
       <c r="E27" t="n">
-        <v>7.058698354608119</v>
+        <v>6.973050473547325</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.501109839018054</v>
+        <v>-5.410448882837123</v>
       </c>
       <c r="G27" t="n">
-        <v>1.899030026001596</v>
+        <v>1.874112845282148</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.54462063912272</v>
       </c>
       <c r="E28" t="n">
-        <v>7.00725064002877</v>
+        <v>6.921577938150429</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.307768080747787</v>
+        <v>-5.224632212427401</v>
       </c>
       <c r="G28" t="n">
-        <v>1.844272382400156</v>
+        <v>1.817965235898163</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.472640461818447</v>
       </c>
       <c r="E29" t="n">
-        <v>6.822758963261546</v>
+        <v>6.741761335370295</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.178596896121049</v>
+        <v>-5.106788080889932</v>
       </c>
       <c r="G29" t="n">
-        <v>1.782785377147718</v>
+        <v>1.772984074313448</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.388079731584278</v>
       </c>
       <c r="E30" t="n">
-        <v>6.727543387061027</v>
+        <v>6.656053592337773</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.100155812436979</v>
+        <v>-5.048840962233903</v>
       </c>
       <c r="G30" t="n">
-        <v>1.740359299722093</v>
+        <v>1.734583349474458</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.291056772186268</v>
       </c>
       <c r="E31" t="n">
-        <v>6.491958787400544</v>
+        <v>6.443156679961922</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.907992312976076</v>
+        <v>-4.873081103074359</v>
       </c>
       <c r="G31" t="n">
-        <v>1.619055584233216</v>
+        <v>1.613545362738127</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.178603748815711</v>
       </c>
       <c r="E32" t="n">
-        <v>6.230491915232523</v>
+        <v>6.186385322454263</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.711022335199902</v>
+        <v>-4.674777371367139</v>
       </c>
       <c r="G32" t="n">
-        <v>1.488654309089888</v>
+        <v>1.490872122139978</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.053213278729876</v>
       </c>
       <c r="E33" t="n">
-        <v>5.986361654095953</v>
+        <v>5.949416597203599</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.505546847270139</v>
+        <v>-4.476629864805647</v>
       </c>
       <c r="G33" t="n">
-        <v>1.470657756321347</v>
+        <v>1.477524362492891</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.914972719569254</v>
       </c>
       <c r="E34" t="n">
-        <v>5.644549795533317</v>
+        <v>5.606921436134418</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.375146302150855</v>
+        <v>-4.346368754279045</v>
       </c>
       <c r="G34" t="n">
-        <v>1.384398115110461</v>
+        <v>1.39945121092773</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.76856871406621</v>
       </c>
       <c r="E35" t="n">
-        <v>5.336060614549491</v>
+        <v>5.320068707809768</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.25875199836766</v>
+        <v>-4.234156028228212</v>
       </c>
       <c r="G35" t="n">
-        <v>1.352306258072288</v>
+        <v>1.366306659216012</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.619463266659605</v>
       </c>
       <c r="E36" t="n">
-        <v>5.015000419502941</v>
+        <v>5.008195135351215</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.173314364231955</v>
+        <v>-4.142946823989146</v>
       </c>
       <c r="G36" t="n">
-        <v>1.266786861243493</v>
+        <v>1.282167007833125</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.4686073362792</v>
       </c>
       <c r="E37" t="n">
-        <v>4.645355664183313</v>
+        <v>4.637926939496769</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.096781563402703</v>
+        <v>-4.081779569268616</v>
       </c>
       <c r="G37" t="n">
-        <v>1.185618407725606</v>
+        <v>1.190747556668968</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.321302216150687</v>
       </c>
       <c r="E38" t="n">
-        <v>4.315656364582856</v>
+        <v>4.333439750330124</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.011039509240044</v>
+        <v>-3.985786517459688</v>
       </c>
       <c r="G38" t="n">
-        <v>1.150088137433342</v>
+        <v>1.158333029002704</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.178590475607479</v>
       </c>
       <c r="E39" t="n">
-        <v>3.967453875526313</v>
+        <v>3.966722391432768</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.868210304746901</v>
+        <v>-3.845091173251407</v>
       </c>
       <c r="G39" t="n">
-        <v>1.071277661582273</v>
+        <v>1.081195768263815</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.044249080821172</v>
       </c>
       <c r="E40" t="n">
-        <v>3.638478759778947</v>
+        <v>3.646557205865945</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.761035474633748</v>
+        <v>-3.744943554599798</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9799750142653881</v>
+        <v>0.9972298626037471</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9202882387226214</v>
       </c>
       <c r="E41" t="n">
-        <v>3.410381286728644</v>
+        <v>3.425459203363459</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.731356347065801</v>
+        <v>-3.719392713008896</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9033502304064087</v>
+        <v>0.9142611697897693</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8074732389869277</v>
       </c>
       <c r="E42" t="n">
-        <v>3.099154515574364</v>
+        <v>3.10599192078409</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.671600228825135</v>
+        <v>-3.651253728654277</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8469573329431511</v>
+        <v>0.8609475137502383</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7071109593041576</v>
       </c>
       <c r="E43" t="n">
-        <v>2.924134170772866</v>
+        <v>2.946840838682678</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.601429587552018</v>
+        <v>-3.58173353880566</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8287636736823378</v>
+        <v>0.8419026464524252</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6176088371666033</v>
       </c>
       <c r="E44" t="n">
-        <v>2.684359233091476</v>
+        <v>2.70575185771947</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.557467539534757</v>
+        <v>-3.553802818826576</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7442867511904514</v>
+        <v>0.7549013008113576</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5391288460601324</v>
       </c>
       <c r="E45" t="n">
-        <v>2.490215178395255</v>
+        <v>2.509522854349432</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.451864451191467</v>
+        <v>-3.442393119225743</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6414730847248427</v>
+        <v>0.6532877938764758</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4708847986240259</v>
       </c>
       <c r="E46" t="n">
-        <v>2.271667879907587</v>
+        <v>2.296342692643944</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.370265283486762</v>
+        <v>-3.367805102453581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6495880320141132</v>
+        <v>0.6664793283778359</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4105091693605187</v>
       </c>
       <c r="E47" t="n">
-        <v>2.010087123988475</v>
+        <v>2.009669550234475</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.309522172736642</v>
+        <v>-3.314595839852549</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5513209553035942</v>
+        <v>0.5659506371744992</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3557427146788952</v>
       </c>
       <c r="E48" t="n">
-        <v>1.8144903214418</v>
+        <v>1.811432980739438</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.222598209644393</v>
+        <v>-3.218947359393075</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4417239054076235</v>
+        <v>0.4634143798461632</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3028434824048462</v>
       </c>
       <c r="E49" t="n">
-        <v>1.671446489879293</v>
+        <v>1.652516966380662</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.155297292893956</v>
+        <v>-3.154600119930547</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3780716488363679</v>
+        <v>0.3891534138463649</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2513189001130352</v>
       </c>
       <c r="E50" t="n">
-        <v>1.532477652538512</v>
+        <v>1.508981098611519</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.087794159482929</v>
+        <v>-3.0941183577887</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2936545883162087</v>
+        <v>0.2974945147952986</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2016526608093591</v>
       </c>
       <c r="E51" t="n">
-        <v>1.41262668490009</v>
+        <v>1.377934482212009</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.999908024698771</v>
+        <v>-3.002593053137951</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2557254590105826</v>
+        <v>0.2681358677833065</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1553063132279406</v>
       </c>
       <c r="E52" t="n">
-        <v>1.246153461622771</v>
+        <v>1.217199247931961</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.884035688108074</v>
+        <v>-2.886628003493483</v>
       </c>
       <c r="G52" t="n">
-        <v>0.236321419882406</v>
+        <v>0.2359943691100424</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1127965927966334</v>
       </c>
       <c r="E53" t="n">
-        <v>1.072441319910727</v>
+        <v>1.039463213681372</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.759129303954881</v>
+        <v>-2.777296682350058</v>
       </c>
       <c r="G53" t="n">
-        <v>0.153723579283519</v>
+        <v>0.1517218533508832</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.07499729948828002</v>
       </c>
       <c r="E54" t="n">
-        <v>1.012268357940107</v>
+        <v>1.001969178706837</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.711068900946439</v>
+        <v>-2.721981300377891</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1283129023093441</v>
+        <v>0.1184225365415285</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.04288931400029466</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8609635742792382</v>
+        <v>0.8306062543730646</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.740985286329158</v>
+        <v>-2.754126449171382</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0968839071044434</v>
+        <v>0.08693367936490062</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.01654195882351477</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7502948490845407</v>
+        <v>0.709638349945097</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.646139102295638</v>
+        <v>-2.656148461982863</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08865069591980924</v>
+        <v>0.07369542332463144</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.004649275829363492</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6682226257983809</v>
+        <v>0.6252023087997561</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.632714690123778</v>
+        <v>-2.642769311301821</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04948198578500158</v>
+        <v>0.03223297763900621</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.02096833099774575</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6428834911806605</v>
+        <v>0.598353484456036</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.65947810165418</v>
+        <v>-2.666344707825724</v>
       </c>
       <c r="G58" t="n">
-        <v>0.00468917040401361</v>
+        <v>-0.01421553227707222</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.03312186763576579</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6169924583845765</v>
+        <v>0.5605805802961371</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.62272358103769</v>
+        <v>-2.634092245497551</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.009255748912255373</v>
+        <v>-0.03499931685115755</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.04180885706131488</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5783187045525868</v>
+        <v>0.5351976442356894</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.621145999075463</v>
+        <v>-2.634666774421323</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.05397118174442518</v>
+        <v>-0.08810710610987056</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.04809225898572553</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4447009434649863</v>
+        <v>0.396187925548363</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.653721862055773</v>
+        <v>-2.677614819039448</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.08086380753087251</v>
+        <v>-0.1137762115961364</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.05344970400449184</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4137012023988129</v>
+        <v>0.3637208361508263</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.671347562609222</v>
+        <v>-2.680803564069993</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1131060495224093</v>
+        <v>-0.1525726094677624</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.05836077576975562</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3457111429494675</v>
+        <v>0.2964754012278443</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.755521525122245</v>
+        <v>-2.771459410082604</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1769378920088467</v>
+        <v>-0.2150320067487456</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.06421918925659832</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3085748197572047</v>
+        <v>0.2440582147161311</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.761701908691062</v>
+        <v>-2.769294158763787</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.180707736179573</v>
+        <v>-0.2197786230922898</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.07058115013998878</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2516241839232201</v>
+        <v>0.1833859162984202</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.758272255725517</v>
+        <v>-2.754722148792473</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2216445645524711</v>
+        <v>-0.2581019653824613</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.07753746438467082</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2061261653143232</v>
+        <v>0.1366848180626145</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.8568985042664</v>
+        <v>-2.851036411181401</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2292061536152872</v>
+        <v>-0.2629493250442781</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.08439052749246224</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1834603787510565</v>
+        <v>0.1073947933108951</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.855707105024218</v>
+        <v>-2.848530968657402</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2311888989227412</v>
+        <v>-0.2676886411473678</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.09072608171063108</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1660916466616066</v>
+        <v>0.08389677933581052</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.950462766076102</v>
+        <v>-2.944879542176467</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2999060623213591</v>
+        <v>-0.3410370770903481</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.09626944359632451</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1190883184709829</v>
+        <v>0.03732270528391394</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.957481947273146</v>
+        <v>-2.956507365172464</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2671060819590952</v>
+        <v>-0.3026640931650857</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1005125077301934</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0327834157692788</v>
+        <v>-0.0574986579320606</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.063637663818844</v>
+        <v>-3.067317715031979</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3231631683614438</v>
+        <v>-0.3637963067314329</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1034591959489467</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.006122485709165305</v>
+        <v>-0.09338810005468733</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.154140934805956</v>
+        <v>-3.160689980517728</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3903677219378803</v>
+        <v>-0.432430247388869</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1054166387912901</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.01743201822134409</v>
+        <v>-0.1115306576323188</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.264413986968018</v>
+        <v>-3.279579506488286</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4159171034806916</v>
+        <v>-0.4554041040993174</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1070487168082801</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.04993998896542626</v>
+        <v>-0.1400643774729475</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.207478681638988</v>
+        <v>-3.216593031846485</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4464978107447743</v>
+        <v>-0.4907591686206715</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1089736210193558</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.08635942854505285</v>
+        <v>-0.1898958188156614</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.272812183586924</v>
+        <v>-3.28295951781874</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5004115465496689</v>
+        <v>-0.5457270591472022</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1111671339211762</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.04704909374542704</v>
+        <v>-0.147412799514491</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.275083288392333</v>
+        <v>-3.290073602141693</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5507729853493827</v>
+        <v>-0.5861776915058278</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1139220376816334</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.07909276919660026</v>
+        <v>-0.1869144006140258</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.209931562431714</v>
+        <v>-3.209789207742851</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5653807664989242</v>
+        <v>-0.6080784128694582</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1170474194827014</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.05205121850488025</v>
+        <v>-0.1697310946321214</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.222760274982484</v>
+        <v>-3.214880395435849</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5625876945010159</v>
+        <v>-0.5867704710307367</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1204881327386165</v>
       </c>
       <c r="E78" t="n">
-        <v>0.03541150233291445</v>
+        <v>-0.06980978343460274</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.160103771209227</v>
+        <v>-3.143478933622096</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5840591617259192</v>
+        <v>-0.6135725738355476</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1236676282352082</v>
       </c>
       <c r="E79" t="n">
-        <v>0.09555964348598921</v>
+        <v>-0.005237696566074633</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.073144766962796</v>
+        <v>-3.062816386767708</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5577228142621081</v>
+        <v>-0.5781912284485572</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1261254890023457</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1891574864017823</v>
+        <v>0.08332882062844704</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.02297167436681</v>
+        <v>-2.999950366093407</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6129140921465478</v>
+        <v>-0.6270298370894531</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1276082546210692</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2776247203261221</v>
+        <v>0.1740416085166045</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.91667798327652</v>
+        <v>-2.88588483901521</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5487624991282014</v>
+        <v>-0.5589361142256533</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1275284989371283</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3592574691369184</v>
+        <v>0.2618036392130355</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.750401866491474</v>
+        <v>-2.72721849287998</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5508562080905645</v>
+        <v>-0.5584221772976533</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1255237989033075</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6520671936724761</v>
+        <v>0.5422467564185965</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.657193126391908</v>
+        <v>-2.638999467131095</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5160311410262102</v>
+        <v>-0.5338072265330236</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1213545771749079</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9088356310839526</v>
+        <v>0.8039589166658899</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.471816660481594</v>
+        <v>-2.457690695202052</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5219049144959359</v>
+        <v>-0.5299570797172973</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1151284014595162</v>
       </c>
       <c r="E85" t="n">
-        <v>1.109887173298262</v>
+        <v>1.009101513630926</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.247616785809972</v>
+        <v>-2.233601054161294</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5195629973581184</v>
+        <v>-0.5249403544769351</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1082033595538468</v>
       </c>
       <c r="E86" t="n">
-        <v>1.426424139359177</v>
+        <v>1.33053694103684</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.137379504826138</v>
+        <v>-2.125785992960278</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4645162642346786</v>
+        <v>-0.4650798427977693</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1022105918895315</v>
       </c>
       <c r="E87" t="n">
-        <v>1.721818149015643</v>
+        <v>1.628761983941577</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.964656545695685</v>
+        <v>-1.958891545808732</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.4292225217331426</v>
+        <v>-0.43892308124914</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1000039127611572</v>
       </c>
       <c r="E88" t="n">
-        <v>1.931446013715951</v>
+        <v>1.831885334396887</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.728439015187794</v>
+        <v>-1.712463168977071</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4383989239845038</v>
+        <v>-0.4412839790121393</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1035807411364184</v>
       </c>
       <c r="E89" t="n">
-        <v>2.128859116087716</v>
+        <v>2.038901173062558</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.584072380054923</v>
+        <v>-1.571235637239654</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.3566741921439803</v>
+        <v>-0.3514340795457089</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1150008654233025</v>
       </c>
       <c r="E90" t="n">
-        <v>2.245725745428321</v>
+        <v>2.162519064775525</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.400037698340155</v>
+        <v>-1.385225510457886</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3153227101132641</v>
+        <v>-0.3119193380133559</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1362251206498756</v>
       </c>
       <c r="E91" t="n">
-        <v>2.289024931612309</v>
+        <v>2.218986424691419</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.211675434083932</v>
+        <v>-1.193416072659028</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2907223598295434</v>
+        <v>-0.2951010440541786</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1690134656692469</v>
       </c>
       <c r="E92" t="n">
-        <v>2.188785329930973</v>
+        <v>2.135474593987623</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.063376889442245</v>
+        <v>-1.043070540593887</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2654854285781866</v>
+        <v>-0.2710263110831851</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2137917395993149</v>
       </c>
       <c r="E93" t="n">
-        <v>2.106556881499086</v>
+        <v>2.061013601399371</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.8738830879155687</v>
+        <v>-0.8453902494214854</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2370728927291033</v>
+        <v>-0.2491328899600092</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2678270750755539</v>
       </c>
       <c r="E94" t="n">
-        <v>1.967569063533123</v>
+        <v>1.928136084693861</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8207460976950375</v>
+        <v>-0.7976028754060437</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1865683692164805</v>
+        <v>-0.2026201379279307</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3270000476037694</v>
       </c>
       <c r="E95" t="n">
-        <v>1.847890381569428</v>
+        <v>1.831486741268068</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6232380921973633</v>
+        <v>-0.5969221854068248</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.168568896351758</v>
+        <v>-0.1759947009421197</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3845454215106509</v>
       </c>
       <c r="E96" t="n">
-        <v>1.691808320555106</v>
+        <v>1.678105769221928</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4872754938757634</v>
+        <v>-0.4494923693792281</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1360769861366759</v>
+        <v>-0.1455439379581279</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4345546407854867</v>
       </c>
       <c r="E97" t="n">
-        <v>1.553003008600507</v>
+        <v>1.537113305227148</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.3279054045607153</v>
+        <v>-0.2967216974350873</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1235278727953156</v>
+        <v>-0.1380144699533117</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4719637012629644</v>
       </c>
       <c r="E98" t="n">
-        <v>1.409491961648909</v>
+        <v>1.385259543484098</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1870487250383895</v>
+        <v>-0.1596509226124877</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1432954638981285</v>
+        <v>-0.144501463621219</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4946023659835069</v>
       </c>
       <c r="E99" t="n">
-        <v>1.277167803169854</v>
+        <v>1.25653148345295</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.04016788709297434</v>
+        <v>-0.009990153101982448</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1864501053211169</v>
+        <v>-0.1974223667242958</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5036254039547611</v>
       </c>
       <c r="E100" t="n">
-        <v>1.235448389020229</v>
+        <v>1.218630095061051</v>
       </c>
       <c r="F100" t="n">
-        <v>0.05361538193036411</v>
+        <v>0.07909030102053909</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1995043953019316</v>
+        <v>-0.2103408722326559</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5032878071272218</v>
       </c>
       <c r="E101" t="n">
-        <v>1.148763873814888</v>
+        <v>1.121081362011259</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1000697320388062</v>
+        <v>0.121948552681073</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.166554029986304</v>
+        <v>-0.1685440755342126</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4945849825528376</v>
       </c>
       <c r="E102" t="n">
-        <v>1.122605652218168</v>
+        <v>1.093346288476358</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1264060795026173</v>
+        <v>0.1366497769084327</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2384190570689211</v>
+        <v>-0.2475487377813732</v>
       </c>
     </row>
   </sheetData>
